--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_08.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_08.xlsx
@@ -84,23 +84,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ash")] What the hell is… that thing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] Looks like some kind of Infected creature… but…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] Its body is entirely Originium… Maybe it's not really alive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_blitz")] The Geiger counter's clicking… that thing's giving off radiation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_blitz")] Hold on… it keeps splitting.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ash")] What the hell is... that thing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] Looks like some kind of Infected creature... but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_shwazr6")] Its body is entirely Originium... Maybe it's not really alive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_blitz")] The Geiger counter's clicking... that thing's giving off radiation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_blitz")] Hold on... it keeps splitting.
 </t>
   </si>
   <si>
